--- a/data/trans_orig/P14C22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E198E0D-0383-4825-8B0B-18FDD3440B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399BCC4A-9C0C-4F33-8C07-ADAFCEB4EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26712732-A628-43B5-BE22-88377C39528C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA95508-1C77-4951-A44E-2680318852AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="96">
   <si>
     <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
   </si>
@@ -194,7 +194,7 @@
     <t>49,82%</t>
   </si>
   <si>
-    <t>87,61%</t>
+    <t>88,47%</t>
   </si>
   <si>
     <t>63,29%</t>
@@ -209,7 +209,7 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>12,39%</t>
+    <t>11,53%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -221,7 +221,7 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>37,85%</t>
+    <t>37,67%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -230,61 +230,64 @@
     <t>88,66%</t>
   </si>
   <si>
-    <t>64,56%</t>
+    <t>62,94%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>49,72%</t>
+    <t>50,53%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>58,27%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>26,73%</t>
+    <t>24,92%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>74,98%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>66,08%</t>
+    <t>71,02%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -293,31 +296,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -732,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83A4818-F1C3-41D7-B338-073E027374CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FC2BC-13C3-4A7D-962B-69D49D789582}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1881,10 +1884,10 @@
         <v>73</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -1893,10 +1896,10 @@
         <v>18636</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -1908,13 +1911,13 @@
         <v>29821</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1932,13 @@
         <v>8690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1950,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -1959,13 +1962,13 @@
         <v>8690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -1995,13 +1998,13 @@
         <v>2164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2010,13 +2013,13 @@
         <v>3055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2075,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C22-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399BCC4A-9C0C-4F33-8C07-ADAFCEB4EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07D171C-A261-4488-9A6B-5EE69F5C21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA95508-1C77-4951-A44E-2680318852AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23A7F404-BE06-4505-B457-6CA46125D69A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="96">
-  <si>
-    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="95">
+  <si>
+    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2016 (Tasa respuesta: 0,58%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>55,69%</t>
@@ -113,7 +113,7 @@
     <t>72,93%</t>
   </si>
   <si>
-    <t>23,55%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>44,31%</t>
@@ -122,7 +122,7 @@
     <t>27,07%</t>
   </si>
   <si>
-    <t>76,45%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -131,7 +131,7 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>32,38%</t>
@@ -140,16 +140,16 @@
     <t>75,06%</t>
   </si>
   <si>
-    <t>37,79%</t>
+    <t>29,01%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>67,62%</t>
@@ -161,7 +161,7 @@
     <t>17,39%</t>
   </si>
   <si>
-    <t>50,57%</t>
+    <t>51,01%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -170,16 +170,16 @@
     <t>24,94%</t>
   </si>
   <si>
-    <t>62,21%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>36,71%</t>
@@ -194,9 +194,6 @@
     <t>49,82%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
     <t>63,29%</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>11,53%</t>
+    <t>10,79%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -221,7 +218,7 @@
     <t>75,63%</t>
   </si>
   <si>
-    <t>37,67%</t>
+    <t>37,29%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -230,64 +227,64 @@
     <t>88,66%</t>
   </si>
   <si>
-    <t>62,94%</t>
+    <t>64,17%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>60,17%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>30,77%</t>
+    <t>32,53%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>60,97%</t>
+    <t>61,18%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>24,92%</t>
+    <t>33,95%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -296,31 +293,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>33,82%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -735,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FC2BC-13C3-4A7D-962B-69D49D789582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C93E58-4059-4E12-BFDE-CC6D5C02EC9C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,10 +1517,10 @@
         <v>3080</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>13</v>
@@ -1541,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1550,10 +1547,10 @@
         <v>3080</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>13</v>
@@ -1592,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1607,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,7 +1660,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1675,10 +1672,10 @@
         <v>5666</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1693,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
@@ -1705,10 +1702,10 @@
         <v>14268</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -1726,13 +1723,13 @@
         <v>934</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1756,13 +1753,13 @@
         <v>934</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1774,13 @@
         <v>891</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1807,13 +1804,13 @@
         <v>891</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1878,13 @@
         <v>11186</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -1896,10 +1893,10 @@
         <v>18636</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -1911,13 +1908,13 @@
         <v>29821</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1929,13 @@
         <v>8690</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1953,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -1962,13 +1959,13 @@
         <v>8690</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1980,13 @@
         <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -1998,13 +1995,13 @@
         <v>2164</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2013,13 +2010,13 @@
         <v>3055</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,7 +2072,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
